--- a/machine learning files/MachineLearningModelRatings.xlsx
+++ b/machine learning files/MachineLearningModelRatings.xlsx
@@ -1,46 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dianeshomefolder/Documents/git/meteorite-classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208B4D57-D48D-9247-B996-E206D31C8109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A8172B-A89C-1B45-A79C-FB63A42A87FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4580" yWindow="760" windowWidth="23320" windowHeight="15940" firstSheet="18" activeTab="20" xr2:uid="{313DD4AE-364D-A749-B1C5-94794B389EE3}"/>
+    <workbookView xWindow="4580" yWindow="760" windowWidth="23320" windowHeight="15940" activeTab="1" xr2:uid="{313DD4AE-364D-A749-B1C5-94794B389EE3}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="1" r:id="rId1"/>
-    <sheet name="C Si" sheetId="3" r:id="rId2"/>
-    <sheet name="C N" sheetId="4" r:id="rId3"/>
-    <sheet name="C Si N" sheetId="5" r:id="rId4"/>
-    <sheet name="C Si N Al" sheetId="6" r:id="rId5"/>
-    <sheet name="Si" sheetId="7" r:id="rId6"/>
-    <sheet name="XGBoost" sheetId="8" r:id="rId7"/>
-    <sheet name="RFC" sheetId="9" r:id="rId8"/>
-    <sheet name="Dec.Tree" sheetId="10" r:id="rId9"/>
-    <sheet name="kNN" sheetId="13" r:id="rId10"/>
-    <sheet name="LogReg" sheetId="12" r:id="rId11"/>
-    <sheet name="DeepLearn" sheetId="11" r:id="rId12"/>
-    <sheet name="SVM" sheetId="24" r:id="rId13"/>
-    <sheet name="Model Avg" sheetId="17" r:id="rId14"/>
-    <sheet name="Top 6" sheetId="14" r:id="rId15"/>
-    <sheet name="# records for top 6" sheetId="19" r:id="rId16"/>
-    <sheet name="total # records" sheetId="22" r:id="rId17"/>
-    <sheet name="feature importance RFC C Si N" sheetId="18" r:id="rId18"/>
-    <sheet name="feature importance RFC C Si" sheetId="20" r:id="rId19"/>
-    <sheet name="feature imp. XGBoost C Si N" sheetId="21" r:id="rId20"/>
-    <sheet name="feature imp. XGBoost C Si" sheetId="23" r:id="rId21"/>
+    <sheet name="C # of each Type" sheetId="27" r:id="rId2"/>
+    <sheet name="C Si" sheetId="3" r:id="rId3"/>
+    <sheet name="C N" sheetId="4" r:id="rId4"/>
+    <sheet name="C Si N" sheetId="5" r:id="rId5"/>
+    <sheet name="C Si N Al" sheetId="6" r:id="rId6"/>
+    <sheet name="Si" sheetId="7" r:id="rId7"/>
+    <sheet name="XGBoost" sheetId="8" r:id="rId8"/>
+    <sheet name="RFC" sheetId="9" r:id="rId9"/>
+    <sheet name="Dec.Tree" sheetId="10" r:id="rId10"/>
+    <sheet name="kNN" sheetId="13" r:id="rId11"/>
+    <sheet name="LogReg" sheetId="12" r:id="rId12"/>
+    <sheet name="DeepLearn" sheetId="11" r:id="rId13"/>
+    <sheet name="SVM" sheetId="24" r:id="rId14"/>
+    <sheet name="Model Avg" sheetId="17" r:id="rId15"/>
+    <sheet name="Top 6" sheetId="14" r:id="rId16"/>
+    <sheet name="# records for top 6" sheetId="19" r:id="rId17"/>
+    <sheet name="total # records" sheetId="22" r:id="rId18"/>
+    <sheet name="feature importance RFC C Si N" sheetId="18" r:id="rId19"/>
+    <sheet name="feature importance RFC C Si" sheetId="20" r:id="rId20"/>
+    <sheet name="feature imp. XGBoost C Si N" sheetId="21" r:id="rId21"/>
+    <sheet name="feature imp. XGBoost C Si" sheetId="23" r:id="rId22"/>
+    <sheet name="Weight XGB C Si N" sheetId="25" r:id="rId23"/>
+    <sheet name="Weight XGB C Si" sheetId="26" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">SVM!$A$4:$A$8</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">SVM!$B$3</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">SVM!$B$4:$B$8</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">SVM!$C$3</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">SVM!$C$4:$C$8</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'C # of each Type'!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'C # of each Type'!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'C # of each Type'!$B$2:$B$10</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'C # of each Type'!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">'C # of each Type'!$B$1</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">'C # of each Type'!$B$2:$B$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="137">
   <si>
     <t>Model</t>
   </si>
@@ -421,6 +425,57 @@
   <si>
     <t>Contribution (%)</t>
   </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>XGBoost C Si N weights</t>
+  </si>
+  <si>
+    <t>Weight = the number of times a feature is used to split the data across all trees.</t>
+  </si>
+  <si>
+    <t>XGBoost C Si weights</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>U/C</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>presolargrains_C_for_SVM</t>
+  </si>
+  <si>
+    <t>from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">except that file doesn’t have the </t>
+  </si>
+  <si>
+    <t>one U/C which was deleted for this SVM model</t>
+  </si>
 </sst>
 </file>
 
@@ -429,7 +484,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -459,6 +514,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -490,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -507,6 +568,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,6 +1023,361 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>Dec.Tree!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy (%) Decision Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dec.Tree!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Si</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C N</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>C Si N Al</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C Si</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>C Si N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dec.Tree!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41C2-6542-91A7-AB429812667C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="197000383"/>
+        <c:axId val="196159631"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="197000383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196159631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="196159631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="197000383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>kNN!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1253,7 +1677,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1608,7 +2032,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1963,7 +2387,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2429,7 +2853,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2784,7 +3208,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3153,7 +3577,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3490,7 +3914,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3587,9 +4011,6 @@
               <c:f>'total # records'!$B$1:$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>isotope</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>records</c:v>
                 </c:pt>
@@ -3886,7 +4307,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4262,7 +4683,427 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> records by presolar grain type </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(carbon isotopes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> only)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'C # of each Type'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># records</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'C # of each Type'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>U/C</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>U</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Z</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'C # of each Type'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0">
+                  <c:v>13271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AE6-9440-9733-CE37833EB7DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="326034288"/>
+        <c:axId val="301920816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="326034288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="301920816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="301920816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="326034288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4632,7 +5473,1311 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Feature Importance for XGBoost with C Si N contribution (%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'feature imp. XGBoost C Si N'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Contribution (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'feature imp. XGBoost C Si N'!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>silicon 29 28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>nitrogen 14 15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>carbon 12 13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>silicon 30 28</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'feature imp. XGBoost C Si N'!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-090E-9C4A-AA7A-F44F550339E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1039982975"/>
+        <c:axId val="969188543"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1039982975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="969188543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="969188543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1039982975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Feature Importance for XGBoost</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> with C Si </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>contribution (%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'feature imp. XGBoost C Si'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Contribution (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'feature imp. XGBoost C Si'!$A$4:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>silicon 29 28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>silicon 30 28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>carbon 12 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'feature imp. XGBoost C Si'!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE28-0049-89E0-5C74FFC89A70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="965542703"/>
+        <c:axId val="986973231"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="965542703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="986973231"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="986973231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="965542703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Weight XGB C Si N'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weight</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Weight XGB C Si N'!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>silicon 30 28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>silicon 29 28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>nitrogen 14 15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>carbon 12 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Weight XGB C Si N'!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-556A-BD46-9C99-D9198FF22154}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="319543664"/>
+        <c:axId val="325952208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="319543664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325952208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="325952208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="319543664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Weight XGB C Si'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Weight</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Weight XGB C Si'!$A$4:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>silicon 30 28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>silicon 29 28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>carbon 12 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Weight XGB C Si'!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2728</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C68-BC44-BEF9-4B9B2693E899}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="363419072"/>
+        <c:axId val="363420704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="363419072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="363420704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="363420704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="363419072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4987,745 +7132,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Feature Importance for XGBoost with C Si N contribution (%)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'feature imp. XGBoost C Si N'!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Contribution (%)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'feature imp. XGBoost C Si N'!$A$4:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>silicon 29 28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>nitrogen 14 15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>carbon 12 13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>silicon 30 28</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'feature imp. XGBoost C Si N'!$B$4:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37.799999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-090E-9C4A-AA7A-F44F550339E9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1039982975"/>
-        <c:axId val="969188543"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1039982975"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="969188543"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="969188543"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1039982975"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Feature Importance for XGBoost</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> with C Si </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>contribution (%)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'feature imp. XGBoost C Si'!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Contribution (%)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'feature imp. XGBoost C Si'!$A$4:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>silicon 29 28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>silicon 30 28</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>carbon 12 13</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'feature imp. XGBoost C Si'!$B$4:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>17.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BE28-0049-89E0-5C74FFC89A70}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="965542703"/>
-        <c:axId val="986973231"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="965542703"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="986973231"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="986973231"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="965542703"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6080,7 +7487,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6441,7 +7848,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6802,7 +8209,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7163,7 +8570,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7518,7 +8925,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7825,361 +9232,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="180665135"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Dec.Tree!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy (%) Decision Tree</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dec.Tree!$A$4:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Si</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C N</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>C Si N Al</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>C Si</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>C Si N</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dec.Tree!$B$4:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>80.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>91.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>91.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>93.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>95.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>95.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-41C2-6542-91A7-AB429812667C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="197000383"/>
-        <c:axId val="196159631"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="197000383"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="196159631"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="196159631"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="197000383"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8788,6 +9840,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -16138,6 +17310,1521 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -19719,6 +22406,47 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
+      <xdr:colOff>93133</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>516466</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>131232</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E7112C-4F8E-F146-B5FA-2876CE146508}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>474133</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>71966</xdr:rowOff>
@@ -19755,7 +22483,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19796,7 +22524,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19837,7 +22565,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19878,7 +22606,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19919,7 +22647,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19960,7 +22688,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20001,7 +22729,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20042,7 +22770,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20083,7 +22811,48 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{273269F2-9254-D947-AE46-F8778B8E16A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20124,7 +22893,171 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>702733</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>186266</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D3BFA48-4F54-0949-86DD-9C11E80F16D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>690034</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BC4E0F3-ADCC-A544-A6A5-49FC753956B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>338666</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>131233</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8D8E3E8-DD87-CB48-8CCB-FD1EDA580B7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>347133</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>770466</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCA629D7-E1A0-2546-8E31-14238202E2E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20165,89 +23098,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>702733</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>186266</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D3BFA48-4F54-0949-86DD-9C11E80F16D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>690034</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BC4E0F3-ADCC-A544-A6A5-49FC753956B5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20288,7 +23139,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20329,7 +23180,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20370,7 +23221,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20411,7 +23262,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20452,7 +23303,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20473,47 +23324,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F455D052-D4BE-1D42-869A-0B27EC84F412}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>93133</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>29632</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>516466</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>131232</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E7112C-4F8E-F146-B5FA-2876CE146508}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20834,7 +23644,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20958,6 +23768,95 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BC5059-2424-8C4F-911E-0EA7D8471859}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>93.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1">
+        <f>AVERAGE(B4:B9)</f>
+        <v>91.333333333333329</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:B9">
+    <sortCondition ref="B5:B9"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98616AFD-30C2-D544-85B1-4182E35377A0}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -21046,7 +23945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C366B7-34BB-C149-A1E2-9330032E9A30}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -21135,7 +24034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AA0BEC-C2DA-9043-8F01-8879DDF64468}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -21224,7 +24123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880E4AA3-7699-3943-AAE5-CB06BBAFCF6B}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -21296,7 +24195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4E6F9C-BEE9-4345-9758-F7DEB184279D}">
   <dimension ref="A2:B13"/>
   <sheetViews>
@@ -21392,7 +24291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5758CE-B4DA-0249-8C3B-79FDAC094704}">
   <dimension ref="A1:C43"/>
   <sheetViews>
@@ -21888,7 +24787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D2F542-EA78-7A48-8EEF-9535F4611863}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -21947,7 +24846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320DE240-BE22-EB4C-B311-8142205E9210}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -22026,12 +24925,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D4A192-5AEA-7B45-A92D-9735BBD62F33}">
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22174,7 +25073,132 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AECAB35-F26E-C44B-8244-745CA62CA931}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="14">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="14">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="14">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="14">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="15">
+        <v>13271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <f>SUM(B2:B10)</f>
+        <v>15622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B10">
+    <sortCondition ref="B2:B10"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5463F5F7-192A-CD4F-B054-839FFA707B86}">
   <dimension ref="A1:K30"/>
   <sheetViews>
@@ -22368,7 +25392,284 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965305D8-0830-3547-9CF5-314B80032108}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="1">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="1">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="1">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="7">
+        <f>SUM(B4:B7)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:B7">
+    <sortCondition ref="B4:B7"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485F747A-B21B-E74A-B113-2793D34FD729}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="1">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="1">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <f>SUM(B4:B6)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:B6">
+    <sortCondition ref="B4:B6"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B150962-9422-0441-A925-33B62BC28F38}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="12">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="12">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="12">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="12">
+        <v>479</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:B7">
+    <sortCondition ref="B4:B7"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D043030-09A6-A64F-88D8-9AA0E6A748A4}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="12"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="12">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="12">
+        <v>3517</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:B6">
+    <sortCondition ref="B4:B6"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3F2FE0-6F54-944F-BD57-4EDDEF7D932D}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -22457,145 +25758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965305D8-0830-3547-9CF5-314B80032108}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="1">
-        <v>21.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="1">
-        <v>35.200000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="1">
-        <v>37.799999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="7">
-        <f>SUM(B4:B7)</f>
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:B7">
-    <sortCondition ref="B4:B7"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485F747A-B21B-E74A-B113-2793D34FD729}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="1">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="1">
-        <v>30.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="1">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="7">
-        <f>SUM(B4:B6)</f>
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:B6">
-    <sortCondition ref="B4:B6"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82756D25-530B-8947-93C4-78F35D7259EF}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -22683,7 +25846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41E1F4D-6E04-774A-8F26-25B82AEB54F9}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -22781,7 +25944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9AB3D5-238C-6D41-925F-2667132DD098}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -22881,7 +26044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC9DE79-27CC-5F40-9D4E-ED60A5CF76E3}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -22978,7 +26141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9A7B97-D620-664D-AF52-0FC1C32658AF}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -23067,7 +26230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730C9984-54F3-6D4A-A83B-45E7D9232264}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -23154,93 +26317,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BC5059-2424-8C4F-911E-0EA7D8471859}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5">
-        <v>80.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>91.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>91.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>93.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>95.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>95.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1">
-        <f>AVERAGE(B4:B9)</f>
-        <v>91.333333333333329</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:B9">
-    <sortCondition ref="B5:B9"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>